--- a/data/raw_database.xlsx
+++ b/data/raw_database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valerie/Desktop/Folder/UP/2024-I/IE2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valerie/Documents/GitHub/forecasting_inflation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF64535-E83E-0E4F-B9C5-0562A97EF0D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6BC1B66-4546-1B42-9114-818BA9FE10D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7160" yWindow="740" windowWidth="18440" windowHeight="16560" xr2:uid="{E3203A21-F210-F24D-81F0-1347E9FBCD41}"/>
   </bookViews>
